--- a/Inventory_Management/Avraam/savedInventory_RoomTemperature.xlsx
+++ b/Inventory_Management/Avraam/savedInventory_RoomTemperature.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Description</t>
   </si>
@@ -58,12 +58,6 @@
   <si>
     <t>currentNumberOfItemsOnShelf</t>
   </si>
-  <si>
-    <t>ajgfjtgjkher</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
 </sst>
 </file>
 
@@ -107,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -177,41 +171,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>46878.0</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="J2" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="K2" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="L2" t="n" s="0">
-        <v>1000.0</v>
-      </c>
-      <c r="M2" t="n" s="0">
-        <v>100.0</v>
-      </c>
-      <c r="N2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="O2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Inventory_Management/Avraam/savedInventory_RoomTemperature.xlsx
+++ b/Inventory_Management/Avraam/savedInventory_RoomTemperature.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Description</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>currentNumberOfItemsOnShelf</t>
+  </si>
+  <si>
+    <t>Chips</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Dark Chocolate</t>
   </si>
 </sst>
 </file>
@@ -101,13 +113,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.95703125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="22.9296875" customWidth="true" bestFit="true"/>
@@ -171,6 +183,111 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>1359684.0</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L2" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="M2" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="N2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O2" t="n" s="0">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>55432.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L3" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="M3" t="n" s="0">
+        <v>50.0</v>
+      </c>
+      <c r="N3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O3" t="n" s="0">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>1324.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="L4" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="M4" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="N4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="O4" t="n" s="0">
+        <v>30.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
